--- a/contact.xlsx
+++ b/contact.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="978">
   <si>
     <t>Test case name</t>
   </si>
@@ -2989,6 +2990,33 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>s.no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salaray</t>
+  </si>
+  <si>
+    <t>balu</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>nikhi</t>
+  </si>
+  <si>
+    <t>pavan</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>smith</t>
   </si>
 </sst>
 </file>
@@ -3365,6 +3393,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3372,6 +3409,33 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3383,44 +3447,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3742,11 +3770,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3767,11 +3795,11 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="58" t="s">
         <v>816</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3792,11 +3820,11 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3838,11 +3866,11 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -4054,11 +4082,11 @@
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4079,11 +4107,11 @@
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="58" t="s">
         <v>817</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4104,11 +4132,11 @@
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4150,11 +4178,11 @@
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4418,11 +4446,11 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4443,11 +4471,11 @@
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="58" t="s">
         <v>818</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4468,11 +4496,11 @@
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4514,11 +4542,11 @@
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4779,11 +4807,11 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4804,11 +4832,11 @@
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="58" t="s">
         <v>819</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4829,11 +4857,11 @@
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4875,11 +4903,11 @@
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4900,11 +4928,11 @@
       <c r="A46" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5160,11 +5188,11 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -5185,11 +5213,11 @@
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="58" t="s">
         <v>820</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -5210,11 +5238,11 @@
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -5256,11 +5284,11 @@
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -5281,11 +5309,11 @@
       <c r="A61" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5541,11 +5569,11 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -5566,11 +5594,11 @@
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="58" t="s">
         <v>821</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -5591,11 +5619,11 @@
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="60"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -5641,11 +5669,11 @@
       <c r="A75" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="60"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -5901,11 +5929,11 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -5926,11 +5954,11 @@
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5951,11 +5979,11 @@
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -5997,11 +6025,11 @@
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="60"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -6310,11 +6338,11 @@
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C101" s="60"/>
-      <c r="D101" s="61"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6335,11 +6363,11 @@
       <c r="A102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="58" t="s">
         <v>823</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="55"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -6360,11 +6388,11 @@
       <c r="A103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="55"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6406,11 +6434,11 @@
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="55"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -6639,11 +6667,11 @@
       <c r="A114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="59" t="s">
+      <c r="B114" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="61"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="63"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -6664,11 +6692,11 @@
       <c r="A115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="55"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="60"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -6689,11 +6717,11 @@
       <c r="A116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="55"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="60"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -6735,11 +6763,11 @@
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="53" t="s">
+      <c r="B118" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="54"/>
-      <c r="D118" s="55"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="60"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -6968,11 +6996,11 @@
       <c r="A127" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="61"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="63"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -6993,11 +7021,11 @@
       <c r="A128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="53" t="s">
+      <c r="B128" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C128" s="54"/>
-      <c r="D128" s="55"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="60"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -7018,11 +7046,11 @@
       <c r="A129" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="53" t="s">
+      <c r="B129" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C129" s="54"/>
-      <c r="D129" s="55"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="60"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -7064,11 +7092,11 @@
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="53" t="s">
+      <c r="B131" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="54"/>
-      <c r="D131" s="55"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="60"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -7297,31 +7325,31 @@
       <c r="A140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="59" t="s">
+      <c r="B140" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="61"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="63"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C141" s="54"/>
-      <c r="D141" s="55"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="60"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="53" t="s">
+      <c r="B142" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C142" s="54"/>
-      <c r="D142" s="55"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="60"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -7333,11 +7361,11 @@
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="53" t="s">
+      <c r="B144" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="54"/>
-      <c r="D144" s="55"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="60"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -7429,31 +7457,31 @@
       <c r="A153" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="59" t="s">
+      <c r="B153" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C153" s="60"/>
-      <c r="D153" s="61"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="63"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="53" t="s">
+      <c r="B154" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C154" s="54"/>
-      <c r="D154" s="55"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="60"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="53" t="s">
+      <c r="B155" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C155" s="54"/>
-      <c r="D155" s="55"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="60"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
@@ -7465,11 +7493,11 @@
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="53" t="s">
+      <c r="B157" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="54"/>
-      <c r="D157" s="55"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="60"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
@@ -7559,31 +7587,31 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="B166" s="59" t="s">
+      <c r="B166" s="61" t="s">
         <v>554</v>
       </c>
-      <c r="C166" s="60"/>
-      <c r="D166" s="61"/>
+      <c r="C166" s="62"/>
+      <c r="D166" s="63"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="53" t="s">
+      <c r="B167" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C167" s="54"/>
-      <c r="D167" s="55"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="60"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="53" t="s">
+      <c r="B168" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C168" s="54"/>
-      <c r="D168" s="55"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="60"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
@@ -7599,11 +7627,11 @@
       <c r="A170" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B170" s="53" t="s">
+      <c r="B170" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="C170" s="54"/>
-      <c r="D170" s="55"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="60"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
@@ -7682,31 +7710,31 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-      <c r="B178" s="59" t="s">
+      <c r="B178" s="61" t="s">
         <v>554</v>
       </c>
-      <c r="C178" s="60"/>
-      <c r="D178" s="61"/>
+      <c r="C178" s="62"/>
+      <c r="D178" s="63"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="53" t="s">
+      <c r="B179" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C179" s="54"/>
-      <c r="D179" s="55"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="60"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="53" t="s">
+      <c r="B180" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C180" s="54"/>
-      <c r="D180" s="55"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="60"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
@@ -7722,11 +7750,11 @@
       <c r="A182" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B182" s="53" t="s">
+      <c r="B182" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C182" s="54"/>
-      <c r="D182" s="55"/>
+      <c r="C182" s="59"/>
+      <c r="D182" s="60"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
@@ -7805,31 +7833,31 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="B190" s="59" t="s">
+      <c r="B190" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="C190" s="60"/>
-      <c r="D190" s="61"/>
+      <c r="C190" s="62"/>
+      <c r="D190" s="63"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="53" t="s">
+      <c r="B191" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C191" s="54"/>
-      <c r="D191" s="55"/>
+      <c r="C191" s="59"/>
+      <c r="D191" s="60"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="53" t="s">
+      <c r="B192" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C192" s="54"/>
-      <c r="D192" s="55"/>
+      <c r="C192" s="59"/>
+      <c r="D192" s="60"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
@@ -7845,11 +7873,11 @@
       <c r="A194" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B194" s="53" t="s">
+      <c r="B194" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C194" s="54"/>
-      <c r="D194" s="55"/>
+      <c r="C194" s="59"/>
+      <c r="D194" s="60"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -7936,31 +7964,31 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-      <c r="B204" s="59" t="s">
+      <c r="B204" s="61" t="s">
         <v>567</v>
       </c>
-      <c r="C204" s="60"/>
-      <c r="D204" s="61"/>
+      <c r="C204" s="62"/>
+      <c r="D204" s="63"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="53" t="s">
+      <c r="B205" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C205" s="54"/>
-      <c r="D205" s="55"/>
+      <c r="C205" s="59"/>
+      <c r="D205" s="60"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="53" t="s">
+      <c r="B206" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C206" s="54"/>
-      <c r="D206" s="55"/>
+      <c r="C206" s="59"/>
+      <c r="D206" s="60"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
@@ -7976,11 +8004,11 @@
       <c r="A208" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B208" s="53" t="s">
+      <c r="B208" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C208" s="54"/>
-      <c r="D208" s="55"/>
+      <c r="C208" s="59"/>
+      <c r="D208" s="60"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
@@ -8056,31 +8084,31 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="B217" s="59" t="s">
+      <c r="B217" s="61" t="s">
         <v>567</v>
       </c>
-      <c r="C217" s="60"/>
-      <c r="D217" s="61"/>
+      <c r="C217" s="62"/>
+      <c r="D217" s="63"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="53" t="s">
+      <c r="B218" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C218" s="54"/>
-      <c r="D218" s="55"/>
+      <c r="C218" s="59"/>
+      <c r="D218" s="60"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="53" t="s">
+      <c r="B219" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C219" s="54"/>
-      <c r="D219" s="55"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="60"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
@@ -8096,11 +8124,11 @@
       <c r="A221" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B221" s="53" t="s">
+      <c r="B221" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C221" s="54"/>
-      <c r="D221" s="55"/>
+      <c r="C221" s="59"/>
+      <c r="D221" s="60"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
@@ -8190,31 +8218,31 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-      <c r="B231" s="59" t="s">
+      <c r="B231" s="61" t="s">
         <v>576</v>
       </c>
-      <c r="C231" s="60"/>
-      <c r="D231" s="61"/>
+      <c r="C231" s="62"/>
+      <c r="D231" s="63"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B232" s="53" t="s">
+      <c r="B232" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C232" s="54"/>
-      <c r="D232" s="55"/>
+      <c r="C232" s="59"/>
+      <c r="D232" s="60"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="53" t="s">
+      <c r="B233" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C233" s="54"/>
-      <c r="D233" s="55"/>
+      <c r="C233" s="59"/>
+      <c r="D233" s="60"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
@@ -8230,11 +8258,11 @@
       <c r="A235" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B235" s="53" t="s">
+      <c r="B235" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="C235" s="54"/>
-      <c r="D235" s="55"/>
+      <c r="C235" s="59"/>
+      <c r="D235" s="60"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
@@ -8338,31 +8366,31 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="B246" s="59" t="s">
+      <c r="B246" s="61" t="s">
         <v>576</v>
       </c>
-      <c r="C246" s="60"/>
-      <c r="D246" s="61"/>
+      <c r="C246" s="62"/>
+      <c r="D246" s="63"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B247" s="53" t="s">
+      <c r="B247" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C247" s="54"/>
-      <c r="D247" s="55"/>
+      <c r="C247" s="59"/>
+      <c r="D247" s="60"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="53" t="s">
+      <c r="B248" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C248" s="54"/>
-      <c r="D248" s="55"/>
+      <c r="C248" s="59"/>
+      <c r="D248" s="60"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8378,11 +8406,11 @@
       <c r="A250" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B250" s="53" t="s">
+      <c r="B250" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="C250" s="54"/>
-      <c r="D250" s="55"/>
+      <c r="C250" s="59"/>
+      <c r="D250" s="60"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
@@ -8461,31 +8489,31 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-      <c r="B258" s="59" t="s">
+      <c r="B258" s="61" t="s">
         <v>576</v>
       </c>
-      <c r="C258" s="60"/>
-      <c r="D258" s="61"/>
+      <c r="C258" s="62"/>
+      <c r="D258" s="63"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B259" s="53" t="s">
+      <c r="B259" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C259" s="54"/>
-      <c r="D259" s="55"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="60"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="53" t="s">
+      <c r="B260" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C260" s="54"/>
-      <c r="D260" s="55"/>
+      <c r="C260" s="59"/>
+      <c r="D260" s="60"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
@@ -8501,11 +8529,11 @@
       <c r="A262" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B262" s="53" t="s">
+      <c r="B262" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="C262" s="54"/>
-      <c r="D262" s="55"/>
+      <c r="C262" s="59"/>
+      <c r="D262" s="60"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
@@ -8617,31 +8645,31 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-      <c r="B273" s="59" t="s">
+      <c r="B273" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C273" s="60"/>
-      <c r="D273" s="61"/>
+      <c r="C273" s="62"/>
+      <c r="D273" s="63"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B274" s="53" t="s">
+      <c r="B274" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C274" s="54"/>
-      <c r="D274" s="55"/>
+      <c r="C274" s="59"/>
+      <c r="D274" s="60"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="53" t="s">
+      <c r="B275" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C275" s="54"/>
-      <c r="D275" s="55"/>
+      <c r="C275" s="59"/>
+      <c r="D275" s="60"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
@@ -8653,11 +8681,11 @@
       <c r="A277" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B277" s="53" t="s">
+      <c r="B277" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C277" s="54"/>
-      <c r="D277" s="55"/>
+      <c r="C277" s="59"/>
+      <c r="D277" s="60"/>
     </row>
     <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
@@ -8795,31 +8823,31 @@
       <c r="A291" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B291" s="59" t="s">
+      <c r="B291" s="61" t="s">
         <v>599</v>
       </c>
-      <c r="C291" s="60"/>
-      <c r="D291" s="61"/>
+      <c r="C291" s="62"/>
+      <c r="D291" s="63"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B292" s="53" t="s">
+      <c r="B292" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C292" s="54"/>
-      <c r="D292" s="55"/>
+      <c r="C292" s="59"/>
+      <c r="D292" s="60"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="53" t="s">
+      <c r="B293" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C293" s="54"/>
-      <c r="D293" s="55"/>
+      <c r="C293" s="59"/>
+      <c r="D293" s="60"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
@@ -8831,11 +8859,11 @@
       <c r="A295" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B295" s="53" t="s">
+      <c r="B295" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C295" s="54"/>
-      <c r="D295" s="55"/>
+      <c r="C295" s="59"/>
+      <c r="D295" s="60"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
@@ -8927,31 +8955,31 @@
       <c r="A305" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B305" s="59" t="s">
+      <c r="B305" s="61" t="s">
         <v>602</v>
       </c>
-      <c r="C305" s="60"/>
-      <c r="D305" s="61"/>
+      <c r="C305" s="62"/>
+      <c r="D305" s="63"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B306" s="53" t="s">
+      <c r="B306" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C306" s="54"/>
-      <c r="D306" s="55"/>
+      <c r="C306" s="59"/>
+      <c r="D306" s="60"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="53" t="s">
+      <c r="B307" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C307" s="54"/>
-      <c r="D307" s="55"/>
+      <c r="C307" s="59"/>
+      <c r="D307" s="60"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
@@ -8963,11 +8991,11 @@
       <c r="A309" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B309" s="53" t="s">
+      <c r="B309" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C309" s="54"/>
-      <c r="D309" s="55"/>
+      <c r="C309" s="59"/>
+      <c r="D309" s="60"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
@@ -9059,31 +9087,31 @@
       <c r="A318" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B318" s="59" t="s">
+      <c r="B318" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="C318" s="60"/>
-      <c r="D318" s="61"/>
+      <c r="C318" s="62"/>
+      <c r="D318" s="63"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B319" s="53" t="s">
+      <c r="B319" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C319" s="54"/>
-      <c r="D319" s="55"/>
+      <c r="C319" s="59"/>
+      <c r="D319" s="60"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="53" t="s">
+      <c r="B320" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C320" s="54"/>
-      <c r="D320" s="55"/>
+      <c r="C320" s="59"/>
+      <c r="D320" s="60"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
@@ -9095,11 +9123,11 @@
       <c r="A322" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B322" s="53" t="s">
+      <c r="B322" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C322" s="54"/>
-      <c r="D322" s="55"/>
+      <c r="C322" s="59"/>
+      <c r="D322" s="60"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -9191,31 +9219,31 @@
       <c r="A331" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B331" s="59" t="s">
+      <c r="B331" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="C331" s="60"/>
-      <c r="D331" s="61"/>
+      <c r="C331" s="62"/>
+      <c r="D331" s="63"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B332" s="53" t="s">
+      <c r="B332" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C332" s="54"/>
-      <c r="D332" s="55"/>
+      <c r="C332" s="59"/>
+      <c r="D332" s="60"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B333" s="53" t="s">
+      <c r="B333" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C333" s="54"/>
-      <c r="D333" s="55"/>
+      <c r="C333" s="59"/>
+      <c r="D333" s="60"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
@@ -9227,11 +9255,11 @@
       <c r="A335" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B335" s="53" t="s">
+      <c r="B335" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C335" s="54"/>
-      <c r="D335" s="55"/>
+      <c r="C335" s="59"/>
+      <c r="D335" s="60"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
@@ -9323,31 +9351,31 @@
       <c r="A344" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B344" s="59" t="s">
+      <c r="B344" s="61" t="s">
         <v>608</v>
       </c>
-      <c r="C344" s="60"/>
-      <c r="D344" s="61"/>
+      <c r="C344" s="62"/>
+      <c r="D344" s="63"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B345" s="53" t="s">
+      <c r="B345" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C345" s="54"/>
-      <c r="D345" s="55"/>
+      <c r="C345" s="59"/>
+      <c r="D345" s="60"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B346" s="53" t="s">
+      <c r="B346" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C346" s="54"/>
-      <c r="D346" s="55"/>
+      <c r="C346" s="59"/>
+      <c r="D346" s="60"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
@@ -9359,11 +9387,11 @@
       <c r="A348" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B348" s="53" t="s">
+      <c r="B348" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C348" s="54"/>
-      <c r="D348" s="55"/>
+      <c r="C348" s="59"/>
+      <c r="D348" s="60"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
@@ -9455,31 +9483,31 @@
       <c r="A357" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B357" s="59" t="s">
+      <c r="B357" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C357" s="60"/>
-      <c r="D357" s="61"/>
+      <c r="C357" s="62"/>
+      <c r="D357" s="63"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B358" s="53" t="s">
+      <c r="B358" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C358" s="54"/>
-      <c r="D358" s="55"/>
+      <c r="C358" s="59"/>
+      <c r="D358" s="60"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B359" s="53" t="s">
+      <c r="B359" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C359" s="54"/>
-      <c r="D359" s="55"/>
+      <c r="C359" s="59"/>
+      <c r="D359" s="60"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
@@ -9491,11 +9519,11 @@
       <c r="A361" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B361" s="53" t="s">
+      <c r="B361" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C361" s="54"/>
-      <c r="D361" s="55"/>
+      <c r="C361" s="59"/>
+      <c r="D361" s="60"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
@@ -9590,31 +9618,31 @@
       <c r="A371" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B371" s="59" t="s">
+      <c r="B371" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="C371" s="60"/>
-      <c r="D371" s="61"/>
+      <c r="C371" s="62"/>
+      <c r="D371" s="63"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B372" s="53" t="s">
+      <c r="B372" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C372" s="54"/>
-      <c r="D372" s="55"/>
+      <c r="C372" s="59"/>
+      <c r="D372" s="60"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B373" s="53" t="s">
+      <c r="B373" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C373" s="54"/>
-      <c r="D373" s="55"/>
+      <c r="C373" s="59"/>
+      <c r="D373" s="60"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
@@ -9626,11 +9654,11 @@
       <c r="A375" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B375" s="53" t="s">
+      <c r="B375" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C375" s="54"/>
-      <c r="D375" s="55"/>
+      <c r="C375" s="59"/>
+      <c r="D375" s="60"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
@@ -9725,31 +9753,31 @@
       <c r="A384" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B384" s="65" t="s">
+      <c r="B384" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C384" s="66"/>
-      <c r="D384" s="67"/>
+      <c r="C384" s="65"/>
+      <c r="D384" s="66"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B385" s="62" t="s">
+      <c r="B385" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C385" s="63"/>
-      <c r="D385" s="64"/>
+      <c r="C385" s="68"/>
+      <c r="D385" s="69"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B386" s="62" t="s">
+      <c r="B386" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C386" s="63"/>
-      <c r="D386" s="64"/>
+      <c r="C386" s="68"/>
+      <c r="D386" s="69"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
@@ -9761,11 +9789,11 @@
       <c r="A388" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B388" s="62" t="s">
+      <c r="B388" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C388" s="63"/>
-      <c r="D388" s="64"/>
+      <c r="C388" s="68"/>
+      <c r="D388" s="69"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -9860,31 +9888,31 @@
       <c r="A397" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B397" s="65" t="s">
+      <c r="B397" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C397" s="66"/>
-      <c r="D397" s="67"/>
+      <c r="C397" s="65"/>
+      <c r="D397" s="66"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B398" s="62" t="s">
+      <c r="B398" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C398" s="63"/>
-      <c r="D398" s="64"/>
+      <c r="C398" s="68"/>
+      <c r="D398" s="69"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B399" s="62" t="s">
+      <c r="B399" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C399" s="63"/>
-      <c r="D399" s="64"/>
+      <c r="C399" s="68"/>
+      <c r="D399" s="69"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
@@ -9896,11 +9924,11 @@
       <c r="A401" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B401" s="62" t="s">
+      <c r="B401" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C401" s="63"/>
-      <c r="D401" s="64"/>
+      <c r="C401" s="68"/>
+      <c r="D401" s="69"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
@@ -9995,31 +10023,31 @@
       <c r="A410" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B410" s="65" t="s">
+      <c r="B410" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C410" s="66"/>
-      <c r="D410" s="67"/>
+      <c r="C410" s="65"/>
+      <c r="D410" s="66"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B411" s="62" t="s">
+      <c r="B411" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C411" s="63"/>
-      <c r="D411" s="64"/>
+      <c r="C411" s="68"/>
+      <c r="D411" s="69"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B412" s="62" t="s">
+      <c r="B412" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C412" s="63"/>
-      <c r="D412" s="64"/>
+      <c r="C412" s="68"/>
+      <c r="D412" s="69"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
@@ -10031,11 +10059,11 @@
       <c r="A414" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B414" s="62" t="s">
+      <c r="B414" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C414" s="63"/>
-      <c r="D414" s="64"/>
+      <c r="C414" s="68"/>
+      <c r="D414" s="69"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
@@ -10130,31 +10158,31 @@
       <c r="A423" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B423" s="65" t="s">
+      <c r="B423" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="C423" s="66"/>
-      <c r="D423" s="67"/>
+      <c r="C423" s="65"/>
+      <c r="D423" s="66"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B424" s="62" t="s">
+      <c r="B424" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C424" s="63"/>
-      <c r="D424" s="64"/>
+      <c r="C424" s="68"/>
+      <c r="D424" s="69"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B425" s="62" t="s">
+      <c r="B425" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C425" s="63"/>
-      <c r="D425" s="64"/>
+      <c r="C425" s="68"/>
+      <c r="D425" s="69"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
@@ -10166,11 +10194,11 @@
       <c r="A427" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B427" s="62" t="s">
+      <c r="B427" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C427" s="63"/>
-      <c r="D427" s="64"/>
+      <c r="C427" s="68"/>
+      <c r="D427" s="69"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
@@ -10265,31 +10293,31 @@
       <c r="A436" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B436" s="65" t="s">
+      <c r="B436" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="C436" s="66"/>
-      <c r="D436" s="67"/>
+      <c r="C436" s="65"/>
+      <c r="D436" s="66"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B437" s="62" t="s">
+      <c r="B437" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="C437" s="63"/>
-      <c r="D437" s="64"/>
+      <c r="C437" s="68"/>
+      <c r="D437" s="69"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B438" s="62" t="s">
+      <c r="B438" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C438" s="63"/>
-      <c r="D438" s="64"/>
+      <c r="C438" s="68"/>
+      <c r="D438" s="69"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
@@ -10301,11 +10329,11 @@
       <c r="A440" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B440" s="62" t="s">
+      <c r="B440" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C440" s="63"/>
-      <c r="D440" s="64"/>
+      <c r="C440" s="68"/>
+      <c r="D440" s="69"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
@@ -10398,31 +10426,31 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
-      <c r="B449" s="65" t="s">
+      <c r="B449" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C449" s="66"/>
-      <c r="D449" s="67"/>
+      <c r="C449" s="65"/>
+      <c r="D449" s="66"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B450" s="62" t="s">
+      <c r="B450" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C450" s="63"/>
-      <c r="D450" s="64"/>
+      <c r="C450" s="68"/>
+      <c r="D450" s="69"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B451" s="62" t="s">
+      <c r="B451" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C451" s="63"/>
-      <c r="D451" s="64"/>
+      <c r="C451" s="68"/>
+      <c r="D451" s="69"/>
     </row>
     <row r="452" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
@@ -10438,11 +10466,11 @@
       <c r="A453" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B453" s="62" t="s">
+      <c r="B453" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C453" s="63"/>
-      <c r="D453" s="64"/>
+      <c r="C453" s="68"/>
+      <c r="D453" s="69"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
@@ -10560,31 +10588,31 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
-      <c r="B465" s="65" t="s">
+      <c r="B465" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C465" s="66"/>
-      <c r="D465" s="67"/>
+      <c r="C465" s="65"/>
+      <c r="D465" s="66"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B466" s="62" t="s">
+      <c r="B466" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C466" s="63"/>
-      <c r="D466" s="64"/>
+      <c r="C466" s="68"/>
+      <c r="D466" s="69"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B467" s="62" t="s">
+      <c r="B467" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C467" s="63"/>
-      <c r="D467" s="64"/>
+      <c r="C467" s="68"/>
+      <c r="D467" s="69"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
@@ -10596,11 +10624,11 @@
       <c r="A469" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B469" s="62" t="s">
+      <c r="B469" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C469" s="63"/>
-      <c r="D469" s="64"/>
+      <c r="C469" s="68"/>
+      <c r="D469" s="69"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
@@ -10704,31 +10732,31 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
-      <c r="B479" s="65" t="s">
+      <c r="B479" s="64" t="s">
         <v>635</v>
       </c>
-      <c r="C479" s="66"/>
-      <c r="D479" s="67"/>
+      <c r="C479" s="65"/>
+      <c r="D479" s="66"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B480" s="62" t="s">
+      <c r="B480" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C480" s="63"/>
-      <c r="D480" s="64"/>
+      <c r="C480" s="68"/>
+      <c r="D480" s="69"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B481" s="62" t="s">
+      <c r="B481" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C481" s="63"/>
-      <c r="D481" s="64"/>
+      <c r="C481" s="68"/>
+      <c r="D481" s="69"/>
     </row>
     <row r="482" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
@@ -10744,11 +10772,11 @@
       <c r="A483" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B483" s="62" t="s">
+      <c r="B483" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C483" s="63"/>
-      <c r="D483" s="64"/>
+      <c r="C483" s="68"/>
+      <c r="D483" s="69"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
@@ -10860,31 +10888,31 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
-      <c r="B495" s="65" t="s">
+      <c r="B495" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C495" s="66"/>
-      <c r="D495" s="67"/>
+      <c r="C495" s="65"/>
+      <c r="D495" s="66"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B496" s="62" t="s">
+      <c r="B496" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C496" s="63"/>
-      <c r="D496" s="64"/>
+      <c r="C496" s="68"/>
+      <c r="D496" s="69"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B497" s="62" t="s">
+      <c r="B497" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="C497" s="63"/>
-      <c r="D497" s="64"/>
+      <c r="C497" s="68"/>
+      <c r="D497" s="69"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
@@ -10896,11 +10924,11 @@
       <c r="A499" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B499" s="62" t="s">
+      <c r="B499" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C499" s="63"/>
-      <c r="D499" s="64"/>
+      <c r="C499" s="68"/>
+      <c r="D499" s="69"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
@@ -15140,41 +15168,41 @@
       <c r="A909" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B909" s="59" t="s">
+      <c r="B909" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C909" s="60"/>
-      <c r="D909" s="61"/>
+      <c r="C909" s="62"/>
+      <c r="D909" s="63"/>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B910" s="53" t="s">
+      <c r="B910" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C910" s="54"/>
-      <c r="D910" s="55"/>
+      <c r="C910" s="59"/>
+      <c r="D910" s="60"/>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B911" s="53" t="s">
+      <c r="B911" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C911" s="54"/>
-      <c r="D911" s="55"/>
+      <c r="C911" s="59"/>
+      <c r="D911" s="60"/>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B912" s="53" t="s">
+      <c r="B912" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C912" s="54"/>
-      <c r="D912" s="55"/>
+      <c r="C912" s="59"/>
+      <c r="D912" s="60"/>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="4" t="s">
@@ -15269,31 +15297,31 @@
       <c r="A921" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B921" s="59" t="s">
+      <c r="B921" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C921" s="60"/>
-      <c r="D921" s="61"/>
+      <c r="C921" s="62"/>
+      <c r="D921" s="63"/>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B922" s="53" t="s">
+      <c r="B922" s="58" t="s">
         <v>878</v>
       </c>
-      <c r="C922" s="54"/>
-      <c r="D922" s="55"/>
+      <c r="C922" s="59"/>
+      <c r="D922" s="60"/>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B923" s="53" t="s">
+      <c r="B923" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C923" s="54"/>
-      <c r="D923" s="55"/>
+      <c r="C923" s="59"/>
+      <c r="D923" s="60"/>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="3" t="s">
@@ -15535,31 +15563,31 @@
       <c r="A945" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B945" s="59" t="s">
+      <c r="B945" s="61" t="s">
         <v>844</v>
       </c>
-      <c r="C945" s="60"/>
-      <c r="D945" s="61"/>
+      <c r="C945" s="62"/>
+      <c r="D945" s="63"/>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B946" s="53" t="s">
+      <c r="B946" s="58" t="s">
         <v>880</v>
       </c>
-      <c r="C946" s="54"/>
-      <c r="D946" s="55"/>
+      <c r="C946" s="59"/>
+      <c r="D946" s="60"/>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B947" s="53" t="s">
+      <c r="B947" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C947" s="54"/>
-      <c r="D947" s="55"/>
+      <c r="C947" s="59"/>
+      <c r="D947" s="60"/>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="3" t="s">
@@ -15650,31 +15678,31 @@
       <c r="A955" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B955" s="59" t="s">
+      <c r="B955" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C955" s="60"/>
-      <c r="D955" s="61"/>
+      <c r="C955" s="62"/>
+      <c r="D955" s="63"/>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B956" s="53" t="s">
+      <c r="B956" s="58" t="s">
         <v>881</v>
       </c>
-      <c r="C956" s="54"/>
-      <c r="D956" s="55"/>
+      <c r="C956" s="59"/>
+      <c r="D956" s="60"/>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B957" s="53" t="s">
+      <c r="B957" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C957" s="54"/>
-      <c r="D957" s="55"/>
+      <c r="C957" s="59"/>
+      <c r="D957" s="60"/>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
@@ -15765,31 +15793,31 @@
       <c r="A965" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B965" s="59" t="s">
+      <c r="B965" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C965" s="60"/>
-      <c r="D965" s="61"/>
+      <c r="C965" s="62"/>
+      <c r="D965" s="63"/>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B966" s="53" t="s">
+      <c r="B966" s="58" t="s">
         <v>882</v>
       </c>
-      <c r="C966" s="54"/>
-      <c r="D966" s="55"/>
+      <c r="C966" s="59"/>
+      <c r="D966" s="60"/>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B967" s="53" t="s">
+      <c r="B967" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C967" s="54"/>
-      <c r="D967" s="55"/>
+      <c r="C967" s="59"/>
+      <c r="D967" s="60"/>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="3" t="s">
@@ -15891,31 +15919,31 @@
       <c r="A976" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B976" s="59" t="s">
+      <c r="B976" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C976" s="60"/>
-      <c r="D976" s="61"/>
+      <c r="C976" s="62"/>
+      <c r="D976" s="63"/>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B977" s="53" t="s">
+      <c r="B977" s="58" t="s">
         <v>883</v>
       </c>
-      <c r="C977" s="54"/>
-      <c r="D977" s="55"/>
+      <c r="C977" s="59"/>
+      <c r="D977" s="60"/>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B978" s="53" t="s">
+      <c r="B978" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C978" s="54"/>
-      <c r="D978" s="55"/>
+      <c r="C978" s="59"/>
+      <c r="D978" s="60"/>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" s="3" t="s">
@@ -16017,31 +16045,31 @@
       <c r="A987" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B987" s="59" t="s">
+      <c r="B987" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C987" s="60"/>
-      <c r="D987" s="61"/>
+      <c r="C987" s="62"/>
+      <c r="D987" s="63"/>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B988" s="53" t="s">
+      <c r="B988" s="58" t="s">
         <v>884</v>
       </c>
-      <c r="C988" s="54"/>
-      <c r="D988" s="55"/>
+      <c r="C988" s="59"/>
+      <c r="D988" s="60"/>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B989" s="53" t="s">
+      <c r="B989" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C989" s="54"/>
-      <c r="D989" s="55"/>
+      <c r="C989" s="59"/>
+      <c r="D989" s="60"/>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="3" t="s">
@@ -16143,31 +16171,31 @@
       <c r="A998" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B998" s="59" t="s">
+      <c r="B998" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C998" s="60"/>
-      <c r="D998" s="61"/>
+      <c r="C998" s="62"/>
+      <c r="D998" s="63"/>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B999" s="53" t="s">
+      <c r="B999" s="58" t="s">
         <v>885</v>
       </c>
-      <c r="C999" s="54"/>
-      <c r="D999" s="55"/>
+      <c r="C999" s="59"/>
+      <c r="D999" s="60"/>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1000" s="53" t="s">
+      <c r="B1000" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1000" s="54"/>
-      <c r="D1000" s="55"/>
+      <c r="C1000" s="59"/>
+      <c r="D1000" s="60"/>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" s="3" t="s">
@@ -16269,31 +16297,31 @@
       <c r="A1009" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1009" s="59" t="s">
+      <c r="B1009" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C1009" s="60"/>
-      <c r="D1009" s="61"/>
+      <c r="C1009" s="62"/>
+      <c r="D1009" s="63"/>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1010" s="53" t="s">
+      <c r="B1010" s="58" t="s">
         <v>886</v>
       </c>
-      <c r="C1010" s="54"/>
-      <c r="D1010" s="55"/>
+      <c r="C1010" s="59"/>
+      <c r="D1010" s="60"/>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1011" s="53" t="s">
+      <c r="B1011" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1011" s="54"/>
-      <c r="D1011" s="55"/>
+      <c r="C1011" s="59"/>
+      <c r="D1011" s="60"/>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="3" t="s">
@@ -16374,31 +16402,31 @@
       <c r="A1018" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1018" s="59" t="s">
+      <c r="B1018" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C1018" s="60"/>
-      <c r="D1018" s="61"/>
+      <c r="C1018" s="62"/>
+      <c r="D1018" s="63"/>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1019" s="53" t="s">
+      <c r="B1019" s="58" t="s">
         <v>887</v>
       </c>
-      <c r="C1019" s="54"/>
-      <c r="D1019" s="55"/>
+      <c r="C1019" s="59"/>
+      <c r="D1019" s="60"/>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1020" s="53" t="s">
+      <c r="B1020" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1020" s="54"/>
-      <c r="D1020" s="55"/>
+      <c r="C1020" s="59"/>
+      <c r="D1020" s="60"/>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="3" t="s">
@@ -16489,31 +16517,31 @@
       <c r="A1028" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1028" s="59" t="s">
+      <c r="B1028" s="61" t="s">
         <v>851</v>
       </c>
-      <c r="C1028" s="60"/>
-      <c r="D1028" s="61"/>
+      <c r="C1028" s="62"/>
+      <c r="D1028" s="63"/>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1029" s="53" t="s">
+      <c r="B1029" s="58" t="s">
         <v>888</v>
       </c>
-      <c r="C1029" s="54"/>
-      <c r="D1029" s="55"/>
+      <c r="C1029" s="59"/>
+      <c r="D1029" s="60"/>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1030" s="53" t="s">
+      <c r="B1030" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1030" s="54"/>
-      <c r="D1030" s="55"/>
+      <c r="C1030" s="59"/>
+      <c r="D1030" s="60"/>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" s="3" t="s">
@@ -16615,31 +16643,31 @@
       <c r="A1039" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1039" s="59" t="s">
+      <c r="B1039" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C1039" s="60"/>
-      <c r="D1039" s="61"/>
+      <c r="C1039" s="62"/>
+      <c r="D1039" s="63"/>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1040" s="53" t="s">
+      <c r="B1040" s="58" t="s">
         <v>889</v>
       </c>
-      <c r="C1040" s="54"/>
-      <c r="D1040" s="55"/>
+      <c r="C1040" s="59"/>
+      <c r="D1040" s="60"/>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1041" s="53" t="s">
+      <c r="B1041" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1041" s="54"/>
-      <c r="D1041" s="55"/>
+      <c r="C1041" s="59"/>
+      <c r="D1041" s="60"/>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" s="3" t="s">
@@ -16727,31 +16755,31 @@
       <c r="A1049" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1049" s="59" t="s">
+      <c r="B1049" s="61" t="s">
         <v>856</v>
       </c>
-      <c r="C1049" s="60"/>
-      <c r="D1049" s="61"/>
+      <c r="C1049" s="62"/>
+      <c r="D1049" s="63"/>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1050" s="53" t="s">
+      <c r="B1050" s="58" t="s">
         <v>890</v>
       </c>
-      <c r="C1050" s="54"/>
-      <c r="D1050" s="55"/>
+      <c r="C1050" s="59"/>
+      <c r="D1050" s="60"/>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1051" s="53" t="s">
+      <c r="B1051" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1051" s="54"/>
-      <c r="D1051" s="55"/>
+      <c r="C1051" s="59"/>
+      <c r="D1051" s="60"/>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" s="3" t="s">
@@ -16853,31 +16881,31 @@
       <c r="A1060" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1060" s="59" t="s">
+      <c r="B1060" s="61" t="s">
         <v>858</v>
       </c>
-      <c r="C1060" s="60"/>
-      <c r="D1060" s="61"/>
+      <c r="C1060" s="62"/>
+      <c r="D1060" s="63"/>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1061" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1061" s="53" t="s">
+      <c r="B1061" s="58" t="s">
         <v>891</v>
       </c>
-      <c r="C1061" s="54"/>
-      <c r="D1061" s="55"/>
+      <c r="C1061" s="59"/>
+      <c r="D1061" s="60"/>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1062" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1062" s="53" t="s">
+      <c r="B1062" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1062" s="54"/>
-      <c r="D1062" s="55"/>
+      <c r="C1062" s="59"/>
+      <c r="D1062" s="60"/>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" s="3" t="s">
@@ -16957,31 +16985,31 @@
       <c r="A1069" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1069" s="59" t="s">
+      <c r="B1069" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C1069" s="60"/>
-      <c r="D1069" s="61"/>
+      <c r="C1069" s="62"/>
+      <c r="D1069" s="63"/>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1070" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1070" s="53" t="s">
+      <c r="B1070" s="58" t="s">
         <v>892</v>
       </c>
-      <c r="C1070" s="54"/>
-      <c r="D1070" s="55"/>
+      <c r="C1070" s="59"/>
+      <c r="D1070" s="60"/>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1071" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1071" s="53" t="s">
+      <c r="B1071" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1071" s="54"/>
-      <c r="D1071" s="55"/>
+      <c r="C1071" s="59"/>
+      <c r="D1071" s="60"/>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1072" s="3" t="s">
@@ -17072,31 +17100,31 @@
       <c r="A1079" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1079" s="59" t="s">
+      <c r="B1079" s="61" t="s">
         <v>852</v>
       </c>
-      <c r="C1079" s="60"/>
-      <c r="D1079" s="61"/>
+      <c r="C1079" s="62"/>
+      <c r="D1079" s="63"/>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1080" s="53" t="s">
+      <c r="B1080" s="58" t="s">
         <v>893</v>
       </c>
-      <c r="C1080" s="54"/>
-      <c r="D1080" s="55"/>
+      <c r="C1080" s="59"/>
+      <c r="D1080" s="60"/>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1081" s="53" t="s">
+      <c r="B1081" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1081" s="54"/>
-      <c r="D1081" s="55"/>
+      <c r="C1081" s="59"/>
+      <c r="D1081" s="60"/>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" s="3" t="s">
@@ -17187,31 +17215,31 @@
       <c r="A1089" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1089" s="59" t="s">
+      <c r="B1089" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C1089" s="60"/>
-      <c r="D1089" s="61"/>
+      <c r="C1089" s="62"/>
+      <c r="D1089" s="63"/>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1090" s="53" t="s">
+      <c r="B1090" s="58" t="s">
         <v>894</v>
       </c>
-      <c r="C1090" s="54"/>
-      <c r="D1090" s="55"/>
+      <c r="C1090" s="59"/>
+      <c r="D1090" s="60"/>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1091" s="53" t="s">
+      <c r="B1091" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1091" s="54"/>
-      <c r="D1091" s="55"/>
+      <c r="C1091" s="59"/>
+      <c r="D1091" s="60"/>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" s="3" t="s">
@@ -17313,31 +17341,31 @@
       <c r="A1100" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1100" s="59" t="s">
+      <c r="B1100" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C1100" s="60"/>
-      <c r="D1100" s="61"/>
+      <c r="C1100" s="62"/>
+      <c r="D1100" s="63"/>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1101" s="53" t="s">
+      <c r="B1101" s="58" t="s">
         <v>895</v>
       </c>
-      <c r="C1101" s="54"/>
-      <c r="D1101" s="55"/>
+      <c r="C1101" s="59"/>
+      <c r="D1101" s="60"/>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1102" s="53" t="s">
+      <c r="B1102" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1102" s="54"/>
-      <c r="D1102" s="55"/>
+      <c r="C1102" s="59"/>
+      <c r="D1102" s="60"/>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" s="3" t="s">
@@ -17439,31 +17467,31 @@
       <c r="A1111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1111" s="59" t="s">
+      <c r="B1111" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C1111" s="60"/>
-      <c r="D1111" s="61"/>
+      <c r="C1111" s="62"/>
+      <c r="D1111" s="63"/>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1112" s="53" t="s">
+      <c r="B1112" s="58" t="s">
         <v>896</v>
       </c>
-      <c r="C1112" s="54"/>
-      <c r="D1112" s="55"/>
+      <c r="C1112" s="59"/>
+      <c r="D1112" s="60"/>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1113" s="53" t="s">
+      <c r="B1113" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1113" s="54"/>
-      <c r="D1113" s="55"/>
+      <c r="C1113" s="59"/>
+      <c r="D1113" s="60"/>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" s="3" t="s">
@@ -17565,31 +17593,31 @@
       <c r="A1122" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1122" s="59" t="s">
+      <c r="B1122" s="61" t="s">
         <v>860</v>
       </c>
-      <c r="C1122" s="60"/>
-      <c r="D1122" s="61"/>
+      <c r="C1122" s="62"/>
+      <c r="D1122" s="63"/>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1123" s="53" t="s">
+      <c r="B1123" s="58" t="s">
         <v>897</v>
       </c>
-      <c r="C1123" s="54"/>
-      <c r="D1123" s="55"/>
+      <c r="C1123" s="59"/>
+      <c r="D1123" s="60"/>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1124" s="53" t="s">
+      <c r="B1124" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1124" s="54"/>
-      <c r="D1124" s="55"/>
+      <c r="C1124" s="59"/>
+      <c r="D1124" s="60"/>
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" s="3" t="s">
@@ -17691,31 +17719,31 @@
       <c r="A1133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1133" s="59" t="s">
+      <c r="B1133" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C1133" s="60"/>
-      <c r="D1133" s="61"/>
+      <c r="C1133" s="62"/>
+      <c r="D1133" s="63"/>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1134" s="53" t="s">
+      <c r="B1134" s="58" t="s">
         <v>898</v>
       </c>
-      <c r="C1134" s="54"/>
-      <c r="D1134" s="55"/>
+      <c r="C1134" s="59"/>
+      <c r="D1134" s="60"/>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1135" s="53" t="s">
+      <c r="B1135" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1135" s="54"/>
-      <c r="D1135" s="55"/>
+      <c r="C1135" s="59"/>
+      <c r="D1135" s="60"/>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" s="3" t="s">
@@ -17817,31 +17845,31 @@
       <c r="A1144" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1144" s="59" t="s">
+      <c r="B1144" s="61" t="s">
         <v>863</v>
       </c>
-      <c r="C1144" s="60"/>
-      <c r="D1144" s="61"/>
+      <c r="C1144" s="62"/>
+      <c r="D1144" s="63"/>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1145" s="53" t="s">
+      <c r="B1145" s="58" t="s">
         <v>899</v>
       </c>
-      <c r="C1145" s="54"/>
-      <c r="D1145" s="55"/>
+      <c r="C1145" s="59"/>
+      <c r="D1145" s="60"/>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1146" s="53" t="s">
+      <c r="B1146" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1146" s="54"/>
-      <c r="D1146" s="55"/>
+      <c r="C1146" s="59"/>
+      <c r="D1146" s="60"/>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" s="3" t="s">
@@ -17940,31 +17968,31 @@
       <c r="A1155" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1155" s="59" t="s">
+      <c r="B1155" s="61" t="s">
         <v>864</v>
       </c>
-      <c r="C1155" s="60"/>
-      <c r="D1155" s="61"/>
+      <c r="C1155" s="62"/>
+      <c r="D1155" s="63"/>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1156" s="53" t="s">
+      <c r="B1156" s="58" t="s">
         <v>900</v>
       </c>
-      <c r="C1156" s="54"/>
-      <c r="D1156" s="55"/>
+      <c r="C1156" s="59"/>
+      <c r="D1156" s="60"/>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1157" s="53" t="s">
+      <c r="B1157" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1157" s="54"/>
-      <c r="D1157" s="55"/>
+      <c r="C1157" s="59"/>
+      <c r="D1157" s="60"/>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" s="3" t="s">
@@ -18063,31 +18091,31 @@
       <c r="A1166" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1166" s="59" t="s">
+      <c r="B1166" s="61" t="s">
         <v>866</v>
       </c>
-      <c r="C1166" s="60"/>
-      <c r="D1166" s="61"/>
+      <c r="C1166" s="62"/>
+      <c r="D1166" s="63"/>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1167" s="53" t="s">
+      <c r="B1167" s="58" t="s">
         <v>901</v>
       </c>
-      <c r="C1167" s="54"/>
-      <c r="D1167" s="55"/>
+      <c r="C1167" s="59"/>
+      <c r="D1167" s="60"/>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1168" s="53" t="s">
+      <c r="B1168" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1168" s="54"/>
-      <c r="D1168" s="55"/>
+      <c r="C1168" s="59"/>
+      <c r="D1168" s="60"/>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" s="3" t="s">
@@ -18186,31 +18214,31 @@
       <c r="A1177" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1177" s="59" t="s">
+      <c r="B1177" s="61" t="s">
         <v>867</v>
       </c>
-      <c r="C1177" s="60"/>
-      <c r="D1177" s="61"/>
+      <c r="C1177" s="62"/>
+      <c r="D1177" s="63"/>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1178" s="53" t="s">
+      <c r="B1178" s="58" t="s">
         <v>902</v>
       </c>
-      <c r="C1178" s="54"/>
-      <c r="D1178" s="55"/>
+      <c r="C1178" s="59"/>
+      <c r="D1178" s="60"/>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1179" s="53" t="s">
+      <c r="B1179" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1179" s="54"/>
-      <c r="D1179" s="55"/>
+      <c r="C1179" s="59"/>
+      <c r="D1179" s="60"/>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" s="3" t="s">
@@ -18301,31 +18329,31 @@
       <c r="A1187" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1187" s="59" t="s">
+      <c r="B1187" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C1187" s="60"/>
-      <c r="D1187" s="61"/>
+      <c r="C1187" s="62"/>
+      <c r="D1187" s="63"/>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1188" s="53" t="s">
+      <c r="B1188" s="58" t="s">
         <v>903</v>
       </c>
-      <c r="C1188" s="54"/>
-      <c r="D1188" s="55"/>
+      <c r="C1188" s="59"/>
+      <c r="D1188" s="60"/>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1189" s="53" t="s">
+      <c r="B1189" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1189" s="54"/>
-      <c r="D1189" s="55"/>
+      <c r="C1189" s="59"/>
+      <c r="D1189" s="60"/>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" s="3" t="s">
@@ -18427,31 +18455,31 @@
       <c r="A1198" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1198" s="59" t="s">
+      <c r="B1198" s="61" t="s">
         <v>870</v>
       </c>
-      <c r="C1198" s="60"/>
-      <c r="D1198" s="61"/>
+      <c r="C1198" s="62"/>
+      <c r="D1198" s="63"/>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1199" s="53" t="s">
+      <c r="B1199" s="58" t="s">
         <v>904</v>
       </c>
-      <c r="C1199" s="54"/>
-      <c r="D1199" s="55"/>
+      <c r="C1199" s="59"/>
+      <c r="D1199" s="60"/>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1200" s="53" t="s">
+      <c r="B1200" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1200" s="54"/>
-      <c r="D1200" s="55"/>
+      <c r="C1200" s="59"/>
+      <c r="D1200" s="60"/>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" s="3" t="s">
@@ -18539,31 +18567,31 @@
       <c r="A1208" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1208" s="59" t="s">
+      <c r="B1208" s="61" t="s">
         <v>871</v>
       </c>
-      <c r="C1208" s="60"/>
-      <c r="D1208" s="61"/>
+      <c r="C1208" s="62"/>
+      <c r="D1208" s="63"/>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1209" s="53" t="s">
+      <c r="B1209" s="58" t="s">
         <v>905</v>
       </c>
-      <c r="C1209" s="54"/>
-      <c r="D1209" s="55"/>
+      <c r="C1209" s="59"/>
+      <c r="D1209" s="60"/>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1210" s="53" t="s">
+      <c r="B1210" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1210" s="54"/>
-      <c r="D1210" s="55"/>
+      <c r="C1210" s="59"/>
+      <c r="D1210" s="60"/>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" s="3" t="s">
@@ -18654,31 +18682,31 @@
       <c r="A1218" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1218" s="59" t="s">
+      <c r="B1218" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C1218" s="60"/>
-      <c r="D1218" s="61"/>
+      <c r="C1218" s="62"/>
+      <c r="D1218" s="63"/>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1219" s="53" t="s">
+      <c r="B1219" s="58" t="s">
         <v>906</v>
       </c>
-      <c r="C1219" s="54"/>
-      <c r="D1219" s="55"/>
+      <c r="C1219" s="59"/>
+      <c r="D1219" s="60"/>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1220" s="53" t="s">
+      <c r="B1220" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1220" s="54"/>
-      <c r="D1220" s="55"/>
+      <c r="C1220" s="59"/>
+      <c r="D1220" s="60"/>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" s="3" t="s">
@@ -18766,31 +18794,31 @@
       <c r="A1228" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1228" s="59" t="s">
+      <c r="B1228" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="C1228" s="60"/>
-      <c r="D1228" s="61"/>
+      <c r="C1228" s="62"/>
+      <c r="D1228" s="63"/>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1229" s="53" t="s">
+      <c r="B1229" s="58" t="s">
         <v>907</v>
       </c>
-      <c r="C1229" s="54"/>
-      <c r="D1229" s="55"/>
+      <c r="C1229" s="59"/>
+      <c r="D1229" s="60"/>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1230" s="53" t="s">
+      <c r="B1230" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1230" s="54"/>
-      <c r="D1230" s="55"/>
+      <c r="C1230" s="59"/>
+      <c r="D1230" s="60"/>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" s="3" t="s">
@@ -18878,31 +18906,31 @@
       <c r="A1238" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1238" s="59" t="s">
+      <c r="B1238" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="C1238" s="60"/>
-      <c r="D1238" s="61"/>
+      <c r="C1238" s="62"/>
+      <c r="D1238" s="63"/>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1239" s="53" t="s">
+      <c r="B1239" s="58" t="s">
         <v>908</v>
       </c>
-      <c r="C1239" s="54"/>
-      <c r="D1239" s="55"/>
+      <c r="C1239" s="59"/>
+      <c r="D1239" s="60"/>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1240" s="53" t="s">
+      <c r="B1240" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1240" s="54"/>
-      <c r="D1240" s="55"/>
+      <c r="C1240" s="59"/>
+      <c r="D1240" s="60"/>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" s="3" t="s">
@@ -18993,31 +19021,31 @@
       <c r="A1248" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1248" s="59" t="s">
+      <c r="B1248" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C1248" s="60"/>
-      <c r="D1248" s="61"/>
+      <c r="C1248" s="62"/>
+      <c r="D1248" s="63"/>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1249" s="53" t="s">
+      <c r="B1249" s="58" t="s">
         <v>909</v>
       </c>
-      <c r="C1249" s="54"/>
-      <c r="D1249" s="55"/>
+      <c r="C1249" s="59"/>
+      <c r="D1249" s="60"/>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1250" s="53" t="s">
+      <c r="B1250" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1250" s="54"/>
-      <c r="D1250" s="55"/>
+      <c r="C1250" s="59"/>
+      <c r="D1250" s="60"/>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" s="3" t="s">
@@ -19116,31 +19144,31 @@
       <c r="A1259" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1259" s="59" t="s">
+      <c r="B1259" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C1259" s="60"/>
-      <c r="D1259" s="61"/>
+      <c r="C1259" s="62"/>
+      <c r="D1259" s="63"/>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1260" s="53" t="s">
+      <c r="B1260" s="58" t="s">
         <v>910</v>
       </c>
-      <c r="C1260" s="54"/>
-      <c r="D1260" s="55"/>
+      <c r="C1260" s="59"/>
+      <c r="D1260" s="60"/>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1261" s="53" t="s">
+      <c r="B1261" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1261" s="54"/>
-      <c r="D1261" s="55"/>
+      <c r="C1261" s="59"/>
+      <c r="D1261" s="60"/>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" s="3" t="s">
@@ -19250,31 +19278,31 @@
       <c r="A1271" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1271" s="59" t="s">
+      <c r="B1271" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C1271" s="60"/>
-      <c r="D1271" s="61"/>
+      <c r="C1271" s="62"/>
+      <c r="D1271" s="63"/>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1272" s="53" t="s">
+      <c r="B1272" s="58" t="s">
         <v>911</v>
       </c>
-      <c r="C1272" s="54"/>
-      <c r="D1272" s="55"/>
+      <c r="C1272" s="59"/>
+      <c r="D1272" s="60"/>
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1273" s="53" t="s">
+      <c r="B1273" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1273" s="54"/>
-      <c r="D1273" s="55"/>
+      <c r="C1273" s="59"/>
+      <c r="D1273" s="60"/>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" s="3" t="s">
@@ -19384,31 +19412,31 @@
       <c r="A1283" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1283" s="59" t="s">
+      <c r="B1283" s="61" t="s">
         <v>874</v>
       </c>
-      <c r="C1283" s="60"/>
-      <c r="D1283" s="61"/>
+      <c r="C1283" s="62"/>
+      <c r="D1283" s="63"/>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1284" s="53" t="s">
+      <c r="B1284" s="58" t="s">
         <v>912</v>
       </c>
-      <c r="C1284" s="54"/>
-      <c r="D1284" s="55"/>
+      <c r="C1284" s="59"/>
+      <c r="D1284" s="60"/>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1285" s="53" t="s">
+      <c r="B1285" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1285" s="54"/>
-      <c r="D1285" s="55"/>
+      <c r="C1285" s="59"/>
+      <c r="D1285" s="60"/>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" s="3" t="s">
@@ -19503,31 +19531,31 @@
       <c r="A1294" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1294" s="59" t="s">
+      <c r="B1294" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C1294" s="60"/>
-      <c r="D1294" s="61"/>
+      <c r="C1294" s="62"/>
+      <c r="D1294" s="63"/>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1295" s="53" t="s">
+      <c r="B1295" s="58" t="s">
         <v>913</v>
       </c>
-      <c r="C1295" s="54"/>
-      <c r="D1295" s="55"/>
+      <c r="C1295" s="59"/>
+      <c r="D1295" s="60"/>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1296" s="53" t="s">
+      <c r="B1296" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1296" s="54"/>
-      <c r="D1296" s="55"/>
+      <c r="C1296" s="59"/>
+      <c r="D1296" s="60"/>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" s="3" t="s">
@@ -19632,31 +19660,31 @@
       <c r="A1306" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1306" s="59" t="s">
+      <c r="B1306" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1306" s="60"/>
-      <c r="D1306" s="61"/>
+      <c r="C1306" s="62"/>
+      <c r="D1306" s="63"/>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1307" s="53" t="s">
+      <c r="B1307" s="58" t="s">
         <v>914</v>
       </c>
-      <c r="C1307" s="54"/>
-      <c r="D1307" s="55"/>
+      <c r="C1307" s="59"/>
+      <c r="D1307" s="60"/>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1308" s="53" t="s">
+      <c r="B1308" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1308" s="54"/>
-      <c r="D1308" s="55"/>
+      <c r="C1308" s="59"/>
+      <c r="D1308" s="60"/>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" s="3" t="s">
@@ -19772,31 +19800,31 @@
       <c r="A1319" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1319" s="59" t="s">
+      <c r="B1319" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1319" s="60"/>
-      <c r="D1319" s="61"/>
+      <c r="C1319" s="62"/>
+      <c r="D1319" s="63"/>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1320" s="53" t="s">
+      <c r="B1320" s="58" t="s">
         <v>915</v>
       </c>
-      <c r="C1320" s="54"/>
-      <c r="D1320" s="55"/>
+      <c r="C1320" s="59"/>
+      <c r="D1320" s="60"/>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1321" s="53" t="s">
+      <c r="B1321" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1321" s="54"/>
-      <c r="D1321" s="55"/>
+      <c r="C1321" s="59"/>
+      <c r="D1321" s="60"/>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" s="3" t="s">
@@ -19912,31 +19940,31 @@
       <c r="A1332" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1332" s="59" t="s">
+      <c r="B1332" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="C1332" s="60"/>
-      <c r="D1332" s="61"/>
+      <c r="C1332" s="62"/>
+      <c r="D1332" s="63"/>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1333" s="53" t="s">
+      <c r="B1333" s="58" t="s">
         <v>916</v>
       </c>
-      <c r="C1333" s="54"/>
-      <c r="D1333" s="55"/>
+      <c r="C1333" s="59"/>
+      <c r="D1333" s="60"/>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1334" s="53" t="s">
+      <c r="B1334" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1334" s="54"/>
-      <c r="D1334" s="55"/>
+      <c r="C1334" s="59"/>
+      <c r="D1334" s="60"/>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" s="3" t="s">
@@ -20028,31 +20056,31 @@
       <c r="A1342" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1342" s="59" t="s">
+      <c r="B1342" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C1342" s="60"/>
-      <c r="D1342" s="61"/>
+      <c r="C1342" s="62"/>
+      <c r="D1342" s="63"/>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1343" s="53" t="s">
+      <c r="B1343" s="58" t="s">
         <v>917</v>
       </c>
-      <c r="C1343" s="54"/>
-      <c r="D1343" s="55"/>
+      <c r="C1343" s="59"/>
+      <c r="D1343" s="60"/>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1344" s="53" t="s">
+      <c r="B1344" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1344" s="54"/>
-      <c r="D1344" s="55"/>
+      <c r="C1344" s="59"/>
+      <c r="D1344" s="60"/>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" s="3" t="s">
@@ -20135,31 +20163,31 @@
       <c r="A1351" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1351" s="59" t="s">
+      <c r="B1351" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C1351" s="60"/>
-      <c r="D1351" s="61"/>
+      <c r="C1351" s="62"/>
+      <c r="D1351" s="63"/>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1352" s="53" t="s">
+      <c r="B1352" s="58" t="s">
         <v>918</v>
       </c>
-      <c r="C1352" s="54"/>
-      <c r="D1352" s="55"/>
+      <c r="C1352" s="59"/>
+      <c r="D1352" s="60"/>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1353" s="53" t="s">
+      <c r="B1353" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1353" s="54"/>
-      <c r="D1353" s="55"/>
+      <c r="C1353" s="59"/>
+      <c r="D1353" s="60"/>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" s="3" t="s">
@@ -20254,31 +20282,31 @@
       <c r="A1361" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1361" s="59" t="s">
+      <c r="B1361" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C1361" s="60"/>
-      <c r="D1361" s="61"/>
+      <c r="C1361" s="62"/>
+      <c r="D1361" s="63"/>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1362" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1362" s="53" t="s">
+      <c r="B1362" s="58" t="s">
         <v>919</v>
       </c>
-      <c r="C1362" s="54"/>
-      <c r="D1362" s="55"/>
+      <c r="C1362" s="59"/>
+      <c r="D1362" s="60"/>
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1363" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1363" s="53" t="s">
+      <c r="B1363" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1363" s="54"/>
-      <c r="D1363" s="55"/>
+      <c r="C1363" s="59"/>
+      <c r="D1363" s="60"/>
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1364" s="3" t="s">
@@ -20373,31 +20401,31 @@
       <c r="A1371" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1371" s="59" t="s">
+      <c r="B1371" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C1371" s="60"/>
-      <c r="D1371" s="61"/>
+      <c r="C1371" s="62"/>
+      <c r="D1371" s="63"/>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1372" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1372" s="53" t="s">
+      <c r="B1372" s="58" t="s">
         <v>920</v>
       </c>
-      <c r="C1372" s="54"/>
-      <c r="D1372" s="55"/>
+      <c r="C1372" s="59"/>
+      <c r="D1372" s="60"/>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1373" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1373" s="53" t="s">
+      <c r="B1373" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1373" s="54"/>
-      <c r="D1373" s="55"/>
+      <c r="C1373" s="59"/>
+      <c r="D1373" s="60"/>
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1374" s="3" t="s">
@@ -20489,31 +20517,31 @@
       <c r="A1381" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1381" s="59" t="s">
+      <c r="B1381" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C1381" s="60"/>
-      <c r="D1381" s="61"/>
+      <c r="C1381" s="62"/>
+      <c r="D1381" s="63"/>
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1382" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1382" s="53" t="s">
+      <c r="B1382" s="58" t="s">
         <v>921</v>
       </c>
-      <c r="C1382" s="54"/>
-      <c r="D1382" s="55"/>
+      <c r="C1382" s="59"/>
+      <c r="D1382" s="60"/>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1383" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1383" s="53" t="s">
+      <c r="B1383" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1383" s="54"/>
-      <c r="D1383" s="55"/>
+      <c r="C1383" s="59"/>
+      <c r="D1383" s="60"/>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1384" s="3" t="s">
@@ -20605,31 +20633,31 @@
       <c r="A1391" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1391" s="59" t="s">
+      <c r="B1391" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C1391" s="60"/>
-      <c r="D1391" s="61"/>
+      <c r="C1391" s="62"/>
+      <c r="D1391" s="63"/>
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1392" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1392" s="53" t="s">
+      <c r="B1392" s="58" t="s">
         <v>922</v>
       </c>
-      <c r="C1392" s="54"/>
-      <c r="D1392" s="55"/>
+      <c r="C1392" s="59"/>
+      <c r="D1392" s="60"/>
     </row>
     <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1393" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1393" s="53" t="s">
+      <c r="B1393" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1393" s="54"/>
-      <c r="D1393" s="55"/>
+      <c r="C1393" s="59"/>
+      <c r="D1393" s="60"/>
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1394" s="3" t="s">
@@ -20721,31 +20749,31 @@
       <c r="A1401" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1401" s="59" t="s">
+      <c r="B1401" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C1401" s="60"/>
-      <c r="D1401" s="61"/>
+      <c r="C1401" s="62"/>
+      <c r="D1401" s="63"/>
     </row>
     <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1402" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1402" s="53" t="s">
+      <c r="B1402" s="58" t="s">
         <v>923</v>
       </c>
-      <c r="C1402" s="54"/>
-      <c r="D1402" s="55"/>
+      <c r="C1402" s="59"/>
+      <c r="D1402" s="60"/>
     </row>
     <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1403" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1403" s="53" t="s">
+      <c r="B1403" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1403" s="54"/>
-      <c r="D1403" s="55"/>
+      <c r="C1403" s="59"/>
+      <c r="D1403" s="60"/>
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1404" s="3" t="s">
@@ -20837,41 +20865,41 @@
       <c r="A1411" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1411" s="59" t="s">
+      <c r="B1411" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C1411" s="60"/>
-      <c r="D1411" s="61"/>
+      <c r="C1411" s="62"/>
+      <c r="D1411" s="63"/>
     </row>
     <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1412" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1412" s="53" t="s">
+      <c r="B1412" s="58" t="s">
         <v>924</v>
       </c>
-      <c r="C1412" s="54"/>
-      <c r="D1412" s="55"/>
+      <c r="C1412" s="59"/>
+      <c r="D1412" s="60"/>
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1413" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1413" s="53" t="s">
+      <c r="B1413" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1413" s="54"/>
-      <c r="D1413" s="55"/>
+      <c r="C1413" s="59"/>
+      <c r="D1413" s="60"/>
     </row>
     <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1414" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1414" s="53" t="s">
+      <c r="B1414" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1414" s="54"/>
-      <c r="D1414" s="55"/>
+      <c r="C1414" s="59"/>
+      <c r="D1414" s="60"/>
     </row>
     <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1415" s="4" t="s">
@@ -20966,41 +20994,41 @@
       <c r="A1423" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1423" s="59" t="s">
+      <c r="B1423" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="C1423" s="60"/>
-      <c r="D1423" s="61"/>
+      <c r="C1423" s="62"/>
+      <c r="D1423" s="63"/>
     </row>
     <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1424" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1424" s="53" t="s">
+      <c r="B1424" s="58" t="s">
         <v>925</v>
       </c>
-      <c r="C1424" s="54"/>
-      <c r="D1424" s="55"/>
+      <c r="C1424" s="59"/>
+      <c r="D1424" s="60"/>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1425" s="53" t="s">
+      <c r="B1425" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1425" s="54"/>
-      <c r="D1425" s="55"/>
+      <c r="C1425" s="59"/>
+      <c r="D1425" s="60"/>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1426" s="53" t="s">
+      <c r="B1426" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1426" s="54"/>
-      <c r="D1426" s="55"/>
+      <c r="C1426" s="59"/>
+      <c r="D1426" s="60"/>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" s="4" t="s">
@@ -21095,41 +21123,41 @@
       <c r="A1435" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1435" s="59" t="s">
+      <c r="B1435" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C1435" s="60"/>
-      <c r="D1435" s="61"/>
+      <c r="C1435" s="62"/>
+      <c r="D1435" s="63"/>
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1436" s="53" t="s">
+      <c r="B1436" s="58" t="s">
         <v>926</v>
       </c>
-      <c r="C1436" s="54"/>
-      <c r="D1436" s="55"/>
+      <c r="C1436" s="59"/>
+      <c r="D1436" s="60"/>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1437" s="53" t="s">
+      <c r="B1437" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C1437" s="54"/>
-      <c r="D1437" s="55"/>
+      <c r="C1437" s="59"/>
+      <c r="D1437" s="60"/>
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1438" s="53" t="s">
+      <c r="B1438" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1438" s="54"/>
-      <c r="D1438" s="55"/>
+      <c r="C1438" s="59"/>
+      <c r="D1438" s="60"/>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" s="4" t="s">
@@ -21227,41 +21255,41 @@
       <c r="A1447" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1447" s="59" t="s">
+      <c r="B1447" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="C1447" s="60"/>
-      <c r="D1447" s="61"/>
+      <c r="C1447" s="62"/>
+      <c r="D1447" s="63"/>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1448" s="53" t="s">
+      <c r="B1448" s="58" t="s">
         <v>927</v>
       </c>
-      <c r="C1448" s="54"/>
-      <c r="D1448" s="55"/>
+      <c r="C1448" s="59"/>
+      <c r="D1448" s="60"/>
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1449" s="53" t="s">
+      <c r="B1449" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C1449" s="54"/>
-      <c r="D1449" s="55"/>
+      <c r="C1449" s="59"/>
+      <c r="D1449" s="60"/>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1450" s="53" t="s">
+      <c r="B1450" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1450" s="54"/>
-      <c r="D1450" s="55"/>
+      <c r="C1450" s="59"/>
+      <c r="D1450" s="60"/>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" s="4" t="s">
@@ -21359,41 +21387,41 @@
       <c r="A1459" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1459" s="59" t="s">
+      <c r="B1459" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C1459" s="60"/>
-      <c r="D1459" s="61"/>
+      <c r="C1459" s="62"/>
+      <c r="D1459" s="63"/>
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1460" s="53" t="s">
+      <c r="B1460" s="58" t="s">
         <v>928</v>
       </c>
-      <c r="C1460" s="54"/>
-      <c r="D1460" s="55"/>
+      <c r="C1460" s="59"/>
+      <c r="D1460" s="60"/>
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1461" s="53" t="s">
+      <c r="B1461" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1461" s="54"/>
-      <c r="D1461" s="55"/>
+      <c r="C1461" s="59"/>
+      <c r="D1461" s="60"/>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1462" s="53" t="s">
+      <c r="B1462" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1462" s="54"/>
-      <c r="D1462" s="55"/>
+      <c r="C1462" s="59"/>
+      <c r="D1462" s="60"/>
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" s="4" t="s">
@@ -21491,41 +21519,41 @@
       <c r="A1471" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1471" s="59" t="s">
+      <c r="B1471" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="C1471" s="60"/>
-      <c r="D1471" s="61"/>
+      <c r="C1471" s="62"/>
+      <c r="D1471" s="63"/>
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1472" s="53" t="s">
+      <c r="B1472" s="58" t="s">
         <v>929</v>
       </c>
-      <c r="C1472" s="54"/>
-      <c r="D1472" s="55"/>
+      <c r="C1472" s="59"/>
+      <c r="D1472" s="60"/>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1473" s="53" t="s">
+      <c r="B1473" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1473" s="54"/>
-      <c r="D1473" s="55"/>
+      <c r="C1473" s="59"/>
+      <c r="D1473" s="60"/>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1474" s="53" t="s">
+      <c r="B1474" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1474" s="54"/>
-      <c r="D1474" s="55"/>
+      <c r="C1474" s="59"/>
+      <c r="D1474" s="60"/>
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" s="4" t="s">
@@ -21620,41 +21648,41 @@
       <c r="A1483" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1483" s="59" t="s">
+      <c r="B1483" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C1483" s="60"/>
-      <c r="D1483" s="61"/>
+      <c r="C1483" s="62"/>
+      <c r="D1483" s="63"/>
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1484" s="53" t="s">
+      <c r="B1484" s="58" t="s">
         <v>930</v>
       </c>
-      <c r="C1484" s="54"/>
-      <c r="D1484" s="55"/>
+      <c r="C1484" s="59"/>
+      <c r="D1484" s="60"/>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1485" s="53" t="s">
+      <c r="B1485" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1485" s="54"/>
-      <c r="D1485" s="55"/>
+      <c r="C1485" s="59"/>
+      <c r="D1485" s="60"/>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1486" s="53" t="s">
+      <c r="B1486" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1486" s="54"/>
-      <c r="D1486" s="55"/>
+      <c r="C1486" s="59"/>
+      <c r="D1486" s="60"/>
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" s="4" t="s">
@@ -21741,41 +21769,41 @@
       <c r="A1495" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1495" s="56" t="s">
+      <c r="B1495" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C1495" s="57"/>
-      <c r="D1495" s="58"/>
+      <c r="C1495" s="71"/>
+      <c r="D1495" s="72"/>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1496" s="53" t="s">
+      <c r="B1496" s="58" t="s">
         <v>931</v>
       </c>
-      <c r="C1496" s="54"/>
-      <c r="D1496" s="55"/>
+      <c r="C1496" s="59"/>
+      <c r="D1496" s="60"/>
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1497" s="53" t="s">
+      <c r="B1497" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1497" s="54"/>
-      <c r="D1497" s="55"/>
+      <c r="C1497" s="59"/>
+      <c r="D1497" s="60"/>
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1498" s="53" t="s">
+      <c r="B1498" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1498" s="54"/>
-      <c r="D1498" s="55"/>
+      <c r="C1498" s="59"/>
+      <c r="D1498" s="60"/>
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" s="4" t="s">
@@ -21862,41 +21890,41 @@
       <c r="A1507" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1507" s="56" t="s">
+      <c r="B1507" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="C1507" s="57"/>
-      <c r="D1507" s="58"/>
+      <c r="C1507" s="71"/>
+      <c r="D1507" s="72"/>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1508" s="53" t="s">
+      <c r="B1508" s="58" t="s">
         <v>932</v>
       </c>
-      <c r="C1508" s="54"/>
-      <c r="D1508" s="55"/>
+      <c r="C1508" s="59"/>
+      <c r="D1508" s="60"/>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1509" s="53" t="s">
+      <c r="B1509" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1509" s="54"/>
-      <c r="D1509" s="55"/>
+      <c r="C1509" s="59"/>
+      <c r="D1509" s="60"/>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1510" s="53" t="s">
+      <c r="B1510" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1510" s="54"/>
-      <c r="D1510" s="55"/>
+      <c r="C1510" s="59"/>
+      <c r="D1510" s="60"/>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" s="4" t="s">
@@ -21983,41 +22011,41 @@
       <c r="A1519" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1519" s="56" t="s">
+      <c r="B1519" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C1519" s="57"/>
-      <c r="D1519" s="58"/>
+      <c r="C1519" s="71"/>
+      <c r="D1519" s="72"/>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1520" s="53" t="s">
+      <c r="B1520" s="58" t="s">
         <v>933</v>
       </c>
-      <c r="C1520" s="54"/>
-      <c r="D1520" s="55"/>
+      <c r="C1520" s="59"/>
+      <c r="D1520" s="60"/>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1521" s="53" t="s">
+      <c r="B1521" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1521" s="54"/>
-      <c r="D1521" s="55"/>
+      <c r="C1521" s="59"/>
+      <c r="D1521" s="60"/>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1522" s="53" t="s">
+      <c r="B1522" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1522" s="54"/>
-      <c r="D1522" s="55"/>
+      <c r="C1522" s="59"/>
+      <c r="D1522" s="60"/>
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" s="4" t="s">
@@ -22104,41 +22132,41 @@
       <c r="A1531" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1531" s="56" t="s">
+      <c r="B1531" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="C1531" s="57"/>
-      <c r="D1531" s="58"/>
+      <c r="C1531" s="71"/>
+      <c r="D1531" s="72"/>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1532" s="53" t="s">
+      <c r="B1532" s="58" t="s">
         <v>934</v>
       </c>
-      <c r="C1532" s="54"/>
-      <c r="D1532" s="55"/>
+      <c r="C1532" s="59"/>
+      <c r="D1532" s="60"/>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1533" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1533" s="53" t="s">
+      <c r="B1533" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1533" s="54"/>
-      <c r="D1533" s="55"/>
+      <c r="C1533" s="59"/>
+      <c r="D1533" s="60"/>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1534" s="53" t="s">
+      <c r="B1534" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1534" s="54"/>
-      <c r="D1534" s="55"/>
+      <c r="C1534" s="59"/>
+      <c r="D1534" s="60"/>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" s="4" t="s">
@@ -22225,41 +22253,41 @@
       <c r="A1542" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1542" s="56" t="s">
+      <c r="B1542" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="C1542" s="57"/>
-      <c r="D1542" s="58"/>
+      <c r="C1542" s="71"/>
+      <c r="D1542" s="72"/>
     </row>
     <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1543" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1543" s="53" t="s">
+      <c r="B1543" s="58" t="s">
         <v>935</v>
       </c>
-      <c r="C1543" s="54"/>
-      <c r="D1543" s="55"/>
+      <c r="C1543" s="59"/>
+      <c r="D1543" s="60"/>
     </row>
     <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1544" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1544" s="53" t="s">
+      <c r="B1544" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1544" s="54"/>
-      <c r="D1544" s="55"/>
+      <c r="C1544" s="59"/>
+      <c r="D1544" s="60"/>
     </row>
     <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1545" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1545" s="53" t="s">
+      <c r="B1545" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1545" s="54"/>
-      <c r="D1545" s="55"/>
+      <c r="C1545" s="59"/>
+      <c r="D1545" s="60"/>
     </row>
     <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1546" s="4" t="s">
@@ -22346,41 +22374,41 @@
       <c r="A1553" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1553" s="56" t="s">
+      <c r="B1553" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="C1553" s="57"/>
-      <c r="D1553" s="58"/>
+      <c r="C1553" s="71"/>
+      <c r="D1553" s="72"/>
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1554" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1554" s="53" t="s">
+      <c r="B1554" s="58" t="s">
         <v>936</v>
       </c>
-      <c r="C1554" s="54"/>
-      <c r="D1554" s="55"/>
+      <c r="C1554" s="59"/>
+      <c r="D1554" s="60"/>
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1555" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1555" s="53" t="s">
+      <c r="B1555" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1555" s="54"/>
-      <c r="D1555" s="55"/>
+      <c r="C1555" s="59"/>
+      <c r="D1555" s="60"/>
     </row>
     <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1556" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1556" s="53" t="s">
+      <c r="B1556" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1556" s="54"/>
-      <c r="D1556" s="55"/>
+      <c r="C1556" s="59"/>
+      <c r="D1556" s="60"/>
     </row>
     <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1557" s="4" t="s">
@@ -22464,41 +22492,41 @@
       <c r="A1564" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1564" s="56" t="s">
+      <c r="B1564" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="C1564" s="57"/>
-      <c r="D1564" s="58"/>
+      <c r="C1564" s="71"/>
+      <c r="D1564" s="72"/>
     </row>
     <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1565" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1565" s="53" t="s">
+      <c r="B1565" s="58" t="s">
         <v>937</v>
       </c>
-      <c r="C1565" s="54"/>
-      <c r="D1565" s="55"/>
+      <c r="C1565" s="59"/>
+      <c r="D1565" s="60"/>
     </row>
     <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1566" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1566" s="53" t="s">
+      <c r="B1566" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C1566" s="54"/>
-      <c r="D1566" s="55"/>
+      <c r="C1566" s="59"/>
+      <c r="D1566" s="60"/>
     </row>
     <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1567" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1567" s="53" t="s">
+      <c r="B1567" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1567" s="54"/>
-      <c r="D1567" s="55"/>
+      <c r="C1567" s="59"/>
+      <c r="D1567" s="60"/>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1568" s="4" t="s">
@@ -24206,6 +24234,339 @@
     </row>
   </sheetData>
   <mergeCells count="345">
+    <mergeCell ref="B1565:D1565"/>
+    <mergeCell ref="B1566:D1566"/>
+    <mergeCell ref="B1567:D1567"/>
+    <mergeCell ref="B1545:D1545"/>
+    <mergeCell ref="B1553:D1553"/>
+    <mergeCell ref="B1554:D1554"/>
+    <mergeCell ref="B1555:D1555"/>
+    <mergeCell ref="B1556:D1556"/>
+    <mergeCell ref="B1564:D1564"/>
+    <mergeCell ref="B1532:D1532"/>
+    <mergeCell ref="B1533:D1533"/>
+    <mergeCell ref="B1534:D1534"/>
+    <mergeCell ref="B1542:D1542"/>
+    <mergeCell ref="B1543:D1543"/>
+    <mergeCell ref="B1544:D1544"/>
+    <mergeCell ref="B1510:D1510"/>
+    <mergeCell ref="B1519:D1519"/>
+    <mergeCell ref="B1520:D1520"/>
+    <mergeCell ref="B1521:D1521"/>
+    <mergeCell ref="B1522:D1522"/>
+    <mergeCell ref="B1531:D1531"/>
+    <mergeCell ref="B1496:D1496"/>
+    <mergeCell ref="B1497:D1497"/>
+    <mergeCell ref="B1498:D1498"/>
+    <mergeCell ref="B1507:D1507"/>
+    <mergeCell ref="B1508:D1508"/>
+    <mergeCell ref="B1509:D1509"/>
+    <mergeCell ref="B1474:D1474"/>
+    <mergeCell ref="B1483:D1483"/>
+    <mergeCell ref="B1484:D1484"/>
+    <mergeCell ref="B1485:D1485"/>
+    <mergeCell ref="B1486:D1486"/>
+    <mergeCell ref="B1495:D1495"/>
+    <mergeCell ref="B1460:D1460"/>
+    <mergeCell ref="B1461:D1461"/>
+    <mergeCell ref="B1462:D1462"/>
+    <mergeCell ref="B1471:D1471"/>
+    <mergeCell ref="B1472:D1472"/>
+    <mergeCell ref="B1473:D1473"/>
+    <mergeCell ref="B1438:D1438"/>
+    <mergeCell ref="B1447:D1447"/>
+    <mergeCell ref="B1448:D1448"/>
+    <mergeCell ref="B1449:D1449"/>
+    <mergeCell ref="B1450:D1450"/>
+    <mergeCell ref="B1459:D1459"/>
+    <mergeCell ref="B1424:D1424"/>
+    <mergeCell ref="B1425:D1425"/>
+    <mergeCell ref="B1426:D1426"/>
+    <mergeCell ref="B1435:D1435"/>
+    <mergeCell ref="B1436:D1436"/>
+    <mergeCell ref="B1437:D1437"/>
+    <mergeCell ref="B1403:D1403"/>
+    <mergeCell ref="B1411:D1411"/>
+    <mergeCell ref="B1412:D1412"/>
+    <mergeCell ref="B1413:D1413"/>
+    <mergeCell ref="B1414:D1414"/>
+    <mergeCell ref="B1423:D1423"/>
+    <mergeCell ref="B1383:D1383"/>
+    <mergeCell ref="B1391:D1391"/>
+    <mergeCell ref="B1392:D1392"/>
+    <mergeCell ref="B1393:D1393"/>
+    <mergeCell ref="B1401:D1401"/>
+    <mergeCell ref="B1402:D1402"/>
+    <mergeCell ref="B1363:D1363"/>
+    <mergeCell ref="B1371:D1371"/>
+    <mergeCell ref="B1372:D1372"/>
+    <mergeCell ref="B1373:D1373"/>
+    <mergeCell ref="B1381:D1381"/>
+    <mergeCell ref="B1382:D1382"/>
+    <mergeCell ref="B1344:D1344"/>
+    <mergeCell ref="B1351:D1351"/>
+    <mergeCell ref="B1352:D1352"/>
+    <mergeCell ref="B1353:D1353"/>
+    <mergeCell ref="B1361:D1361"/>
+    <mergeCell ref="B1362:D1362"/>
+    <mergeCell ref="B1321:D1321"/>
+    <mergeCell ref="B1332:D1332"/>
+    <mergeCell ref="B1333:D1333"/>
+    <mergeCell ref="B1334:D1334"/>
+    <mergeCell ref="B1342:D1342"/>
+    <mergeCell ref="B1343:D1343"/>
+    <mergeCell ref="B1296:D1296"/>
+    <mergeCell ref="B1306:D1306"/>
+    <mergeCell ref="B1307:D1307"/>
+    <mergeCell ref="B1308:D1308"/>
+    <mergeCell ref="B1319:D1319"/>
+    <mergeCell ref="B1320:D1320"/>
+    <mergeCell ref="B1273:D1273"/>
+    <mergeCell ref="B1283:D1283"/>
+    <mergeCell ref="B1284:D1284"/>
+    <mergeCell ref="B1285:D1285"/>
+    <mergeCell ref="B1294:D1294"/>
+    <mergeCell ref="B1295:D1295"/>
+    <mergeCell ref="B1250:D1250"/>
+    <mergeCell ref="B1259:D1259"/>
+    <mergeCell ref="B1260:D1260"/>
+    <mergeCell ref="B1261:D1261"/>
+    <mergeCell ref="B1271:D1271"/>
+    <mergeCell ref="B1272:D1272"/>
+    <mergeCell ref="B1230:D1230"/>
+    <mergeCell ref="B1238:D1238"/>
+    <mergeCell ref="B1239:D1239"/>
+    <mergeCell ref="B1240:D1240"/>
+    <mergeCell ref="B1248:D1248"/>
+    <mergeCell ref="B1249:D1249"/>
+    <mergeCell ref="B1210:D1210"/>
+    <mergeCell ref="B1218:D1218"/>
+    <mergeCell ref="B1219:D1219"/>
+    <mergeCell ref="B1220:D1220"/>
+    <mergeCell ref="B1228:D1228"/>
+    <mergeCell ref="B1229:D1229"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="B1199:D1199"/>
+    <mergeCell ref="B1200:D1200"/>
+    <mergeCell ref="B1208:D1208"/>
+    <mergeCell ref="B1209:D1209"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="B1177:D1177"/>
+    <mergeCell ref="B1178:D1178"/>
+    <mergeCell ref="B1179:D1179"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="B1155:D1155"/>
+    <mergeCell ref="B1156:D1156"/>
+    <mergeCell ref="B1157:D1157"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="B1124:D1124"/>
+    <mergeCell ref="B1133:D1133"/>
+    <mergeCell ref="B1134:D1134"/>
+    <mergeCell ref="B1135:D1135"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="B1102:D1102"/>
+    <mergeCell ref="B1111:D1111"/>
+    <mergeCell ref="B1112:D1112"/>
+    <mergeCell ref="B1113:D1113"/>
+    <mergeCell ref="B1122:D1122"/>
+    <mergeCell ref="B1123:D1123"/>
+    <mergeCell ref="B1081:D1081"/>
+    <mergeCell ref="B1089:D1089"/>
+    <mergeCell ref="B1090:D1090"/>
+    <mergeCell ref="B1091:D1091"/>
+    <mergeCell ref="B1100:D1100"/>
+    <mergeCell ref="B1101:D1101"/>
+    <mergeCell ref="B1062:D1062"/>
+    <mergeCell ref="B1069:D1069"/>
+    <mergeCell ref="B1070:D1070"/>
+    <mergeCell ref="B1071:D1071"/>
+    <mergeCell ref="B1079:D1079"/>
+    <mergeCell ref="B1080:D1080"/>
+    <mergeCell ref="B1041:D1041"/>
+    <mergeCell ref="B1049:D1049"/>
+    <mergeCell ref="B1050:D1050"/>
+    <mergeCell ref="B1051:D1051"/>
+    <mergeCell ref="B1060:D1060"/>
+    <mergeCell ref="B1061:D1061"/>
+    <mergeCell ref="B1020:D1020"/>
+    <mergeCell ref="B1028:D1028"/>
+    <mergeCell ref="B1029:D1029"/>
+    <mergeCell ref="B1030:D1030"/>
+    <mergeCell ref="B1039:D1039"/>
+    <mergeCell ref="B1040:D1040"/>
+    <mergeCell ref="B1000:D1000"/>
+    <mergeCell ref="B1009:D1009"/>
+    <mergeCell ref="B1010:D1010"/>
+    <mergeCell ref="B1011:D1011"/>
+    <mergeCell ref="B1018:D1018"/>
+    <mergeCell ref="B1019:D1019"/>
+    <mergeCell ref="B978:D978"/>
+    <mergeCell ref="B987:D987"/>
+    <mergeCell ref="B988:D988"/>
+    <mergeCell ref="B989:D989"/>
+    <mergeCell ref="B998:D998"/>
+    <mergeCell ref="B999:D999"/>
+    <mergeCell ref="B957:D957"/>
+    <mergeCell ref="B965:D965"/>
+    <mergeCell ref="B966:D966"/>
+    <mergeCell ref="B967:D967"/>
+    <mergeCell ref="B976:D976"/>
+    <mergeCell ref="B977:D977"/>
+    <mergeCell ref="B923:D923"/>
+    <mergeCell ref="B945:D945"/>
+    <mergeCell ref="B946:D946"/>
+    <mergeCell ref="B947:D947"/>
+    <mergeCell ref="B955:D955"/>
+    <mergeCell ref="B956:D956"/>
+    <mergeCell ref="B909:D909"/>
+    <mergeCell ref="B910:D910"/>
+    <mergeCell ref="B911:D911"/>
+    <mergeCell ref="B912:D912"/>
+    <mergeCell ref="B921:D921"/>
+    <mergeCell ref="B922:D922"/>
+    <mergeCell ref="B481:D481"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B495:D495"/>
+    <mergeCell ref="B496:D496"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="B499:D499"/>
+    <mergeCell ref="B465:D465"/>
+    <mergeCell ref="B466:D466"/>
+    <mergeCell ref="B467:D467"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="B479:D479"/>
+    <mergeCell ref="B480:D480"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="B449:D449"/>
+    <mergeCell ref="B450:D450"/>
+    <mergeCell ref="B451:D451"/>
+    <mergeCell ref="B453:D453"/>
+    <mergeCell ref="B423:D423"/>
+    <mergeCell ref="B424:D424"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="B399:D399"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B388:D388"/>
+    <mergeCell ref="B397:D397"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B344:D344"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="B346:D346"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B320:D320"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="B331:D331"/>
+    <mergeCell ref="B332:D332"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B305:D305"/>
+    <mergeCell ref="B306:D306"/>
+    <mergeCell ref="B307:D307"/>
+    <mergeCell ref="B309:D309"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="B319:D319"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="B277:D277"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B292:D292"/>
+    <mergeCell ref="B293:D293"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B247:D247"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B27:D27"/>
@@ -24218,339 +24579,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B259:D259"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B305:D305"/>
-    <mergeCell ref="B306:D306"/>
-    <mergeCell ref="B307:D307"/>
-    <mergeCell ref="B309:D309"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="B319:D319"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="B277:D277"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="B292:D292"/>
-    <mergeCell ref="B293:D293"/>
-    <mergeCell ref="B295:D295"/>
-    <mergeCell ref="B344:D344"/>
-    <mergeCell ref="B345:D345"/>
-    <mergeCell ref="B346:D346"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B320:D320"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="B331:D331"/>
-    <mergeCell ref="B332:D332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B388:D388"/>
-    <mergeCell ref="B397:D397"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B423:D423"/>
-    <mergeCell ref="B424:D424"/>
-    <mergeCell ref="B425:D425"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="B399:D399"/>
-    <mergeCell ref="B401:D401"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B465:D465"/>
-    <mergeCell ref="B466:D466"/>
-    <mergeCell ref="B467:D467"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="B479:D479"/>
-    <mergeCell ref="B480:D480"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="B449:D449"/>
-    <mergeCell ref="B450:D450"/>
-    <mergeCell ref="B451:D451"/>
-    <mergeCell ref="B453:D453"/>
-    <mergeCell ref="B909:D909"/>
-    <mergeCell ref="B910:D910"/>
-    <mergeCell ref="B911:D911"/>
-    <mergeCell ref="B912:D912"/>
-    <mergeCell ref="B921:D921"/>
-    <mergeCell ref="B922:D922"/>
-    <mergeCell ref="B481:D481"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="B495:D495"/>
-    <mergeCell ref="B496:D496"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="B499:D499"/>
-    <mergeCell ref="B957:D957"/>
-    <mergeCell ref="B965:D965"/>
-    <mergeCell ref="B966:D966"/>
-    <mergeCell ref="B967:D967"/>
-    <mergeCell ref="B976:D976"/>
-    <mergeCell ref="B977:D977"/>
-    <mergeCell ref="B923:D923"/>
-    <mergeCell ref="B945:D945"/>
-    <mergeCell ref="B946:D946"/>
-    <mergeCell ref="B947:D947"/>
-    <mergeCell ref="B955:D955"/>
-    <mergeCell ref="B956:D956"/>
-    <mergeCell ref="B1000:D1000"/>
-    <mergeCell ref="B1009:D1009"/>
-    <mergeCell ref="B1010:D1010"/>
-    <mergeCell ref="B1011:D1011"/>
-    <mergeCell ref="B1018:D1018"/>
-    <mergeCell ref="B1019:D1019"/>
-    <mergeCell ref="B978:D978"/>
-    <mergeCell ref="B987:D987"/>
-    <mergeCell ref="B988:D988"/>
-    <mergeCell ref="B989:D989"/>
-    <mergeCell ref="B998:D998"/>
-    <mergeCell ref="B999:D999"/>
-    <mergeCell ref="B1041:D1041"/>
-    <mergeCell ref="B1049:D1049"/>
-    <mergeCell ref="B1050:D1050"/>
-    <mergeCell ref="B1051:D1051"/>
-    <mergeCell ref="B1060:D1060"/>
-    <mergeCell ref="B1061:D1061"/>
-    <mergeCell ref="B1020:D1020"/>
-    <mergeCell ref="B1028:D1028"/>
-    <mergeCell ref="B1029:D1029"/>
-    <mergeCell ref="B1030:D1030"/>
-    <mergeCell ref="B1039:D1039"/>
-    <mergeCell ref="B1040:D1040"/>
-    <mergeCell ref="B1081:D1081"/>
-    <mergeCell ref="B1089:D1089"/>
-    <mergeCell ref="B1090:D1090"/>
-    <mergeCell ref="B1091:D1091"/>
-    <mergeCell ref="B1100:D1100"/>
-    <mergeCell ref="B1101:D1101"/>
-    <mergeCell ref="B1062:D1062"/>
-    <mergeCell ref="B1069:D1069"/>
-    <mergeCell ref="B1070:D1070"/>
-    <mergeCell ref="B1071:D1071"/>
-    <mergeCell ref="B1079:D1079"/>
-    <mergeCell ref="B1080:D1080"/>
-    <mergeCell ref="B1124:D1124"/>
-    <mergeCell ref="B1133:D1133"/>
-    <mergeCell ref="B1134:D1134"/>
-    <mergeCell ref="B1135:D1135"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="B1102:D1102"/>
-    <mergeCell ref="B1111:D1111"/>
-    <mergeCell ref="B1112:D1112"/>
-    <mergeCell ref="B1113:D1113"/>
-    <mergeCell ref="B1122:D1122"/>
-    <mergeCell ref="B1123:D1123"/>
-    <mergeCell ref="B1168:D1168"/>
-    <mergeCell ref="B1177:D1177"/>
-    <mergeCell ref="B1178:D1178"/>
-    <mergeCell ref="B1179:D1179"/>
-    <mergeCell ref="B1187:D1187"/>
-    <mergeCell ref="B1188:D1188"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="B1155:D1155"/>
-    <mergeCell ref="B1156:D1156"/>
-    <mergeCell ref="B1157:D1157"/>
-    <mergeCell ref="B1166:D1166"/>
-    <mergeCell ref="B1167:D1167"/>
-    <mergeCell ref="B1210:D1210"/>
-    <mergeCell ref="B1218:D1218"/>
-    <mergeCell ref="B1219:D1219"/>
-    <mergeCell ref="B1220:D1220"/>
-    <mergeCell ref="B1228:D1228"/>
-    <mergeCell ref="B1229:D1229"/>
-    <mergeCell ref="B1189:D1189"/>
-    <mergeCell ref="B1198:D1198"/>
-    <mergeCell ref="B1199:D1199"/>
-    <mergeCell ref="B1200:D1200"/>
-    <mergeCell ref="B1208:D1208"/>
-    <mergeCell ref="B1209:D1209"/>
-    <mergeCell ref="B1250:D1250"/>
-    <mergeCell ref="B1259:D1259"/>
-    <mergeCell ref="B1260:D1260"/>
-    <mergeCell ref="B1261:D1261"/>
-    <mergeCell ref="B1271:D1271"/>
-    <mergeCell ref="B1272:D1272"/>
-    <mergeCell ref="B1230:D1230"/>
-    <mergeCell ref="B1238:D1238"/>
-    <mergeCell ref="B1239:D1239"/>
-    <mergeCell ref="B1240:D1240"/>
-    <mergeCell ref="B1248:D1248"/>
-    <mergeCell ref="B1249:D1249"/>
-    <mergeCell ref="B1296:D1296"/>
-    <mergeCell ref="B1306:D1306"/>
-    <mergeCell ref="B1307:D1307"/>
-    <mergeCell ref="B1308:D1308"/>
-    <mergeCell ref="B1319:D1319"/>
-    <mergeCell ref="B1320:D1320"/>
-    <mergeCell ref="B1273:D1273"/>
-    <mergeCell ref="B1283:D1283"/>
-    <mergeCell ref="B1284:D1284"/>
-    <mergeCell ref="B1285:D1285"/>
-    <mergeCell ref="B1294:D1294"/>
-    <mergeCell ref="B1295:D1295"/>
-    <mergeCell ref="B1344:D1344"/>
-    <mergeCell ref="B1351:D1351"/>
-    <mergeCell ref="B1352:D1352"/>
-    <mergeCell ref="B1353:D1353"/>
-    <mergeCell ref="B1361:D1361"/>
-    <mergeCell ref="B1362:D1362"/>
-    <mergeCell ref="B1321:D1321"/>
-    <mergeCell ref="B1332:D1332"/>
-    <mergeCell ref="B1333:D1333"/>
-    <mergeCell ref="B1334:D1334"/>
-    <mergeCell ref="B1342:D1342"/>
-    <mergeCell ref="B1343:D1343"/>
-    <mergeCell ref="B1383:D1383"/>
-    <mergeCell ref="B1391:D1391"/>
-    <mergeCell ref="B1392:D1392"/>
-    <mergeCell ref="B1393:D1393"/>
-    <mergeCell ref="B1401:D1401"/>
-    <mergeCell ref="B1402:D1402"/>
-    <mergeCell ref="B1363:D1363"/>
-    <mergeCell ref="B1371:D1371"/>
-    <mergeCell ref="B1372:D1372"/>
-    <mergeCell ref="B1373:D1373"/>
-    <mergeCell ref="B1381:D1381"/>
-    <mergeCell ref="B1382:D1382"/>
-    <mergeCell ref="B1424:D1424"/>
-    <mergeCell ref="B1425:D1425"/>
-    <mergeCell ref="B1426:D1426"/>
-    <mergeCell ref="B1435:D1435"/>
-    <mergeCell ref="B1436:D1436"/>
-    <mergeCell ref="B1437:D1437"/>
-    <mergeCell ref="B1403:D1403"/>
-    <mergeCell ref="B1411:D1411"/>
-    <mergeCell ref="B1412:D1412"/>
-    <mergeCell ref="B1413:D1413"/>
-    <mergeCell ref="B1414:D1414"/>
-    <mergeCell ref="B1423:D1423"/>
-    <mergeCell ref="B1460:D1460"/>
-    <mergeCell ref="B1461:D1461"/>
-    <mergeCell ref="B1462:D1462"/>
-    <mergeCell ref="B1471:D1471"/>
-    <mergeCell ref="B1472:D1472"/>
-    <mergeCell ref="B1473:D1473"/>
-    <mergeCell ref="B1438:D1438"/>
-    <mergeCell ref="B1447:D1447"/>
-    <mergeCell ref="B1448:D1448"/>
-    <mergeCell ref="B1449:D1449"/>
-    <mergeCell ref="B1450:D1450"/>
-    <mergeCell ref="B1459:D1459"/>
-    <mergeCell ref="B1496:D1496"/>
-    <mergeCell ref="B1497:D1497"/>
-    <mergeCell ref="B1498:D1498"/>
-    <mergeCell ref="B1507:D1507"/>
-    <mergeCell ref="B1508:D1508"/>
-    <mergeCell ref="B1509:D1509"/>
-    <mergeCell ref="B1474:D1474"/>
-    <mergeCell ref="B1483:D1483"/>
-    <mergeCell ref="B1484:D1484"/>
-    <mergeCell ref="B1485:D1485"/>
-    <mergeCell ref="B1486:D1486"/>
-    <mergeCell ref="B1495:D1495"/>
-    <mergeCell ref="B1532:D1532"/>
-    <mergeCell ref="B1533:D1533"/>
-    <mergeCell ref="B1534:D1534"/>
-    <mergeCell ref="B1542:D1542"/>
-    <mergeCell ref="B1543:D1543"/>
-    <mergeCell ref="B1544:D1544"/>
-    <mergeCell ref="B1510:D1510"/>
-    <mergeCell ref="B1519:D1519"/>
-    <mergeCell ref="B1520:D1520"/>
-    <mergeCell ref="B1521:D1521"/>
-    <mergeCell ref="B1522:D1522"/>
-    <mergeCell ref="B1531:D1531"/>
-    <mergeCell ref="B1565:D1565"/>
-    <mergeCell ref="B1566:D1566"/>
-    <mergeCell ref="B1567:D1567"/>
-    <mergeCell ref="B1545:D1545"/>
-    <mergeCell ref="B1553:D1553"/>
-    <mergeCell ref="B1554:D1554"/>
-    <mergeCell ref="B1555:D1555"/>
-    <mergeCell ref="B1556:D1556"/>
-    <mergeCell ref="B1564:D1564"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://localhost:8888"/>
@@ -24721,10 +24749,10 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>275</v>
       </c>
       <c r="C2" s="45" t="s">
@@ -24748,8 +24776,8 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="45" t="s">
         <v>278</v>
       </c>
@@ -24771,8 +24799,8 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="45" t="s">
         <v>280</v>
       </c>
@@ -24794,8 +24822,8 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="45" t="s">
         <v>282</v>
       </c>
@@ -24817,8 +24845,8 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="45" t="s">
         <v>284</v>
       </c>
@@ -26341,160 +26369,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="54" t="s">
         <v>939</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="54" t="s">
         <v>940</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="54" t="s">
         <v>941</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="54" t="s">
         <v>942</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="54" t="s">
         <v>943</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="57" t="s">
         <v>944</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="54" t="s">
         <v>945</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="54" t="s">
         <v>946</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="54" t="s">
         <v>947</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="54">
         <v>6281963899</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="55" t="s">
         <v>948</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="57" t="s">
         <v>949</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="54" t="s">
         <v>503</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="57" t="s">
         <v>950</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="54" t="s">
         <v>951</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="54" t="s">
         <v>952</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="54">
         <v>123456789</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="57" t="s">
         <v>953</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="54" t="s">
         <v>954</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="54" t="s">
         <v>955</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="54">
         <v>8976523104</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="55" t="s">
         <v>956</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="54" t="s">
         <v>957</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="55" t="s">
         <v>958</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="56" t="s">
         <v>959</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="57" t="s">
         <v>960</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="55" t="s">
         <v>961</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="54" t="s">
         <v>962</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="54" t="s">
         <v>963</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="55" t="s">
         <v>964</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="54">
         <v>8978523134</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="54" t="s">
         <v>965</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="54" t="s">
         <v>966</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="54" t="s">
         <v>967</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="54" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>977</v>
+      </c>
+      <c r="C7">
+        <v>56000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
